--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cdh1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H2">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I2">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J2">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>93.0394717200014</v>
+        <v>95.33061966666668</v>
       </c>
       <c r="N2">
-        <v>93.0394717200014</v>
+        <v>285.991859</v>
       </c>
       <c r="O2">
-        <v>0.8183562921407328</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="P2">
-        <v>0.8183562921407328</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="Q2">
-        <v>35.62607753132447</v>
+        <v>40.016552894998</v>
       </c>
       <c r="R2">
-        <v>35.62607753132447</v>
+        <v>360.148976054982</v>
       </c>
       <c r="S2">
-        <v>0.4444785243886776</v>
+        <v>0.3370290866205195</v>
       </c>
       <c r="T2">
-        <v>0.4444785243886776</v>
+        <v>0.3370290866205195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H3">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I3">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J3">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.6266754621935</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="N3">
-        <v>19.6266754621935</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="O3">
-        <v>0.17263225017686</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="P3">
-        <v>0.17263225017686</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="Q3">
-        <v>7.515320635122783</v>
+        <v>8.238996902847997</v>
       </c>
       <c r="R3">
-        <v>7.515320635122783</v>
+        <v>74.15097212563198</v>
       </c>
       <c r="S3">
-        <v>0.09376273947840838</v>
+        <v>0.06939082454509075</v>
       </c>
       <c r="T3">
-        <v>0.09376273947840838</v>
+        <v>0.06939082454509075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H4">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I4">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J4">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.145321763785437</v>
+        <v>0.1464893333333333</v>
       </c>
       <c r="N4">
-        <v>0.145321763785437</v>
+        <v>0.439468</v>
       </c>
       <c r="O4">
-        <v>0.001278220711922158</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="P4">
-        <v>0.001278220711922158</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="Q4">
-        <v>0.05564567734422989</v>
+        <v>0.06149124149599999</v>
       </c>
       <c r="R4">
-        <v>0.05564567734422989</v>
+        <v>0.5534211734639999</v>
       </c>
       <c r="S4">
-        <v>0.0006942473117570926</v>
+        <v>0.0005178941077443272</v>
       </c>
       <c r="T4">
-        <v>0.0006942473117570926</v>
+        <v>0.0005178941077443272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H5">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I5">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J5">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.879196860009934</v>
+        <v>0.06486466666666667</v>
       </c>
       <c r="N5">
-        <v>0.879196860009934</v>
+        <v>0.194594</v>
       </c>
       <c r="O5">
-        <v>0.007733236970484957</v>
+        <v>0.0005587556757982266</v>
       </c>
       <c r="P5">
-        <v>0.007733236970484957</v>
+        <v>0.0005587556757982267</v>
       </c>
       <c r="Q5">
-        <v>0.3366564203446282</v>
+        <v>0.02722798166799999</v>
       </c>
       <c r="R5">
-        <v>0.3366564203446282</v>
+        <v>0.245051835012</v>
       </c>
       <c r="S5">
-        <v>0.004200197139558397</v>
+        <v>0.0002293206467874785</v>
       </c>
       <c r="T5">
-        <v>0.004200197139558397</v>
+        <v>0.0002293206467874786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.322091772758332</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H6">
-        <v>0.322091772758332</v>
+        <v>1.259298</v>
       </c>
       <c r="I6">
-        <v>0.4568642916815985</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J6">
-        <v>0.4568642916815985</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.0394717200014</v>
+        <v>0.9181413333333334</v>
       </c>
       <c r="N6">
-        <v>93.0394717200014</v>
+        <v>2.754424</v>
       </c>
       <c r="O6">
-        <v>0.8183562921407328</v>
+        <v>0.007909031334752637</v>
       </c>
       <c r="P6">
-        <v>0.8183562921407328</v>
+        <v>0.007909031334752637</v>
       </c>
       <c r="Q6">
-        <v>29.96724838279395</v>
+        <v>0.3854045149279999</v>
       </c>
       <c r="R6">
-        <v>29.96724838279395</v>
+        <v>3.468640634352</v>
       </c>
       <c r="S6">
-        <v>0.3738777677520552</v>
+        <v>0.003245970036110845</v>
       </c>
       <c r="T6">
-        <v>0.3738777677520552</v>
+        <v>0.003245970036110845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.322091772758332</v>
+        <v>0.5921903333333333</v>
       </c>
       <c r="H7">
-        <v>0.322091772758332</v>
+        <v>1.776571</v>
       </c>
       <c r="I7">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="J7">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.6266754621935</v>
+        <v>95.33061966666668</v>
       </c>
       <c r="N7">
-        <v>19.6266754621935</v>
+        <v>285.991859</v>
       </c>
       <c r="O7">
-        <v>0.17263225017686</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="P7">
-        <v>0.17263225017686</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="Q7">
-        <v>6.32159069297036</v>
+        <v>56.45387143727655</v>
       </c>
       <c r="R7">
-        <v>6.32159069297036</v>
+        <v>508.084842935489</v>
       </c>
       <c r="S7">
-        <v>0.07886951069845166</v>
+        <v>0.4754681588047491</v>
       </c>
       <c r="T7">
-        <v>0.07886951069845166</v>
+        <v>0.4754681588047491</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.322091772758332</v>
+        <v>0.5921903333333333</v>
       </c>
       <c r="H8">
-        <v>0.322091772758332</v>
+        <v>1.776571</v>
       </c>
       <c r="I8">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="J8">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.145321763785437</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="N8">
-        <v>0.145321763785437</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="O8">
-        <v>0.001278220711922158</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="P8">
-        <v>0.001278220711922158</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="Q8">
-        <v>0.04680694451801898</v>
+        <v>11.62327182818489</v>
       </c>
       <c r="R8">
-        <v>0.04680694451801898</v>
+        <v>104.609446453664</v>
       </c>
       <c r="S8">
-        <v>0.0005839734001650651</v>
+        <v>0.09789400646463065</v>
       </c>
       <c r="T8">
-        <v>0.0005839734001650651</v>
+        <v>0.09789400646463065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5921903333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.776571</v>
+      </c>
+      <c r="I9">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="J9">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1464893333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.439468</v>
+      </c>
+      <c r="O9">
+        <v>0.001261884946769659</v>
+      </c>
+      <c r="P9">
+        <v>0.001261884946769659</v>
+      </c>
+      <c r="Q9">
+        <v>0.08674956713644444</v>
+      </c>
+      <c r="R9">
+        <v>0.7807461042279999</v>
+      </c>
+      <c r="S9">
+        <v>0.0007306258350997518</v>
+      </c>
+      <c r="T9">
+        <v>0.0007306258350997517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5921903333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.776571</v>
+      </c>
+      <c r="I10">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="J10">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.06486466666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.194594</v>
+      </c>
+      <c r="O10">
+        <v>0.0005587556757982266</v>
+      </c>
+      <c r="P10">
+        <v>0.0005587556757982267</v>
+      </c>
+      <c r="Q10">
+        <v>0.03841222857488889</v>
+      </c>
+      <c r="R10">
+        <v>0.345710057174</v>
+      </c>
+      <c r="S10">
+        <v>0.0003235170791852902</v>
+      </c>
+      <c r="T10">
+        <v>0.0003235170791852902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5921903333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.776571</v>
+      </c>
+      <c r="I11">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="J11">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9181413333333334</v>
+      </c>
+      <c r="N11">
+        <v>2.754424</v>
+      </c>
+      <c r="O11">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="P11">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="Q11">
+        <v>0.5437144222337777</v>
+      </c>
+      <c r="R11">
+        <v>4.893429800104</v>
+      </c>
+      <c r="S11">
+        <v>0.004579294363227355</v>
+      </c>
+      <c r="T11">
+        <v>0.004579294363227355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.032498</v>
+      </c>
+      <c r="I12">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J12">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>95.33061966666668</v>
+      </c>
+      <c r="N12">
+        <v>285.991859</v>
+      </c>
+      <c r="O12">
+        <v>0.8211947667879593</v>
+      </c>
+      <c r="P12">
+        <v>0.8211947667879593</v>
+      </c>
+      <c r="Q12">
+        <v>1.032684825975778</v>
+      </c>
+      <c r="R12">
+        <v>9.294163433782002</v>
+      </c>
+      <c r="S12">
+        <v>0.008697521362690676</v>
+      </c>
+      <c r="T12">
+        <v>0.008697521362690676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.322091772758332</v>
-      </c>
-      <c r="H9">
-        <v>0.322091772758332</v>
-      </c>
-      <c r="I9">
-        <v>0.4568642916815985</v>
-      </c>
-      <c r="J9">
-        <v>0.4568642916815985</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.879196860009934</v>
-      </c>
-      <c r="N9">
-        <v>0.879196860009934</v>
-      </c>
-      <c r="O9">
-        <v>0.007733236970484957</v>
-      </c>
-      <c r="P9">
-        <v>0.007733236970484957</v>
-      </c>
-      <c r="Q9">
-        <v>0.2831820752441587</v>
-      </c>
-      <c r="R9">
-        <v>0.2831820752441587</v>
-      </c>
-      <c r="S9">
-        <v>0.003533039830926561</v>
-      </c>
-      <c r="T9">
-        <v>0.003533039830926561</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.032498</v>
+      </c>
+      <c r="I13">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J13">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.62759466666666</v>
+      </c>
+      <c r="N13">
+        <v>58.88278399999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1690755612547201</v>
+      </c>
+      <c r="P13">
+        <v>0.1690755612547201</v>
+      </c>
+      <c r="Q13">
+        <v>0.2126191904924444</v>
+      </c>
+      <c r="R13">
+        <v>1.913572714432</v>
+      </c>
+      <c r="S13">
+        <v>0.001790730244998689</v>
+      </c>
+      <c r="T13">
+        <v>0.001790730244998689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.032498</v>
+      </c>
+      <c r="I14">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J14">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1464893333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.439468</v>
+      </c>
+      <c r="O14">
+        <v>0.001261884946769659</v>
+      </c>
+      <c r="P14">
+        <v>0.001261884946769659</v>
+      </c>
+      <c r="Q14">
+        <v>0.001586870118222222</v>
+      </c>
+      <c r="R14">
+        <v>0.014281831064</v>
+      </c>
+      <c r="S14">
+        <v>1.336500392558008E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.336500392558008E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.032498</v>
+      </c>
+      <c r="I15">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J15">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.06486466666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.194594</v>
+      </c>
+      <c r="O15">
+        <v>0.0005587556757982266</v>
+      </c>
+      <c r="P15">
+        <v>0.0005587556757982267</v>
+      </c>
+      <c r="Q15">
+        <v>0.0007026573124444444</v>
+      </c>
+      <c r="R15">
+        <v>0.006323915812</v>
+      </c>
+      <c r="S15">
+        <v>5.917949825457895E-06</v>
+      </c>
+      <c r="T15">
+        <v>5.917949825457897E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.032498</v>
+      </c>
+      <c r="I16">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J16">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9181413333333334</v>
+      </c>
+      <c r="N16">
+        <v>2.754424</v>
+      </c>
+      <c r="O16">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="P16">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="Q16">
+        <v>0.009945919016888889</v>
+      </c>
+      <c r="R16">
+        <v>0.089513271152</v>
+      </c>
+      <c r="S16">
+        <v>8.376693541443745E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.376693541443745E-05</v>
       </c>
     </row>
   </sheetData>
